--- a/OpenCart (demo)/Test Cases.xlsx
+++ b/OpenCart (demo)/Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12180" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="14400" windowHeight="12180" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="200">
   <si>
     <t>Project Name</t>
   </si>
@@ -189,9 +189,22 @@
 6. Click on "Continue" button on account success page.</t>
   </si>
   <si>
+    <t>First Name: f1
+Last Name: l1
+Email: f1l1@gmail.com
+Telephone: 123456789
+Password: 1234</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. User should be taken to the "Register Account" page
 2.  User account should be created and taken to the account success page. Additionally, account creation successful message should display. 
 3. User sould be taken to the "Account page" after clicking "Continue" button on account success page. </t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>TC_002</t>
@@ -321,6 +334,12 @@
 2. 12421@
 3. 123214+
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account can be created using invalid telephone </t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>TC_008</t>
@@ -604,6 +623,9 @@
     <t xml:space="preserve"> 
 1. An email should be recevied by the registered email address with the details of resetting the password.
 2. Email should contain proper steps for resetting the password</t>
+  </si>
+  <si>
+    <t>No email is sent for recovery</t>
   </si>
   <si>
     <t>verify logging into the application with the old password after resetting it</t>
@@ -1003,7 +1025,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1013,6 +1035,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,12 +1209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,7 +1506,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1502,16 +1530,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1520,89 +1548,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1622,8 +1650,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2007,56 +2041,56 @@
   </cols>
   <sheetData>
     <row r="6" spans="9:10">
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="7:10">
-      <c r="G7" s="8"/>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="8:10">
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="8:10">
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="26"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="8:10">
-      <c r="H10" s="22"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="8:10">
-      <c r="H11" s="22"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="8:10">
-      <c r="H12" s="22"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="8:10">
-      <c r="H13" s="23"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2072,8 +2106,8 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2086,331 +2120,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="17">
-        <v>5</v>
-      </c>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="15"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="15"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="15"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="16"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="16"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="17"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="15"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="16"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="17"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="15"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="17"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="15"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="16"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="15"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="16"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="17"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="15"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="16"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="17"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="15"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="17"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="15"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="16"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="17"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="15"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="16"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="15"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="16"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="15"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="16"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="15"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="16"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="15"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="16"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="15"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="16"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="15"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="16"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="15"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="16"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:5">
-      <c r="A37" s="15"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="18"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="15"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="16"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="15"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="16"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2432,7 +2464,1538 @@
   <sheetPr/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="180" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" ht="180" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="240" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" ht="225" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" ht="135" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" ht="225" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" ht="225" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" ht="105" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" ht="180" spans="1:11">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="90" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" ht="120" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" ht="120" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" ht="90" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" ht="45" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" ht="105" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" ht="105" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" ht="135" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" ht="195" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" ht="45" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="105" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" ht="105" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" ht="90" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" ht="105" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" ht="150" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" ht="180" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="E3" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -2491,260 +4054,227 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" ht="180" spans="1:11">
+    <row r="2" ht="345" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" ht="180" spans="1:11">
+      <c r="K2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" ht="195" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="5"/>
+        <v>144</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" ht="240" spans="1:11">
+      <c r="K3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" ht="75" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" ht="225" spans="1:11">
+      <c r="K4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" ht="90" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" ht="135" spans="1:11">
+      <c r="K5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" ht="60" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>47</v>
+        <v>64</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="5"/>
+        <v>154</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" ht="225" spans="1:11">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="K6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-    </row>
-    <row r="8" ht="225" spans="1:11">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-    </row>
-    <row r="9" ht="105" spans="1:11">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-    </row>
-    <row r="10" ht="180" spans="1:11">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -2752,8 +4282,9 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
@@ -2765,8 +4296,9 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
@@ -2778,8 +4310,9 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
@@ -2791,10 +4324,10 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2804,8 +4337,9 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
@@ -2817,8 +4351,9 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
@@ -2830,8 +4365,9 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
       <c r="C18" s="3"/>
@@ -2843,8 +4379,9 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
@@ -2856,8 +4393,9 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
@@ -2869,8 +4407,9 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
@@ -2882,8 +4421,9 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
@@ -2895,6 +4435,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2902,13 +4443,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2966,283 +4507,313 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" ht="90" spans="1:12">
+    <row r="2" ht="75" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="5"/>
+        <v>158</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" ht="120" spans="1:12">
+    <row r="3" ht="75" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="5"/>
+        <v>160</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" ht="120" spans="1:12">
+    <row r="4" ht="60" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" ht="90" spans="1:12">
+    <row r="5" ht="135" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="5"/>
+        <v>158</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" ht="45" spans="1:12">
+    <row r="6" ht="195" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="5"/>
+        <v>168</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" ht="105" spans="1:12">
+    <row r="7" ht="195" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>172</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" ht="105" spans="1:12">
+    <row r="8" ht="255" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>175</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" ht="135" spans="1:12">
+    <row r="9" ht="60" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="5"/>
+        <v>179</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" ht="195" spans="1:12">
+    <row r="10" ht="90" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="5"/>
+        <v>182</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" ht="45" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>97</v>
-      </c>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -3408,13 +4979,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3472,1415 +5043,38 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" ht="105" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" ht="105" spans="1:12">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" ht="90" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" ht="105" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" ht="150" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" ht="180" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.8571428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.8571428571429" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5714285714286" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="30" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" ht="345" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" ht="195" spans="1:12">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" ht="75" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" ht="90" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" ht="60" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.8571428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.8571428571429" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5714285714286" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="30" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" ht="75" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" ht="75" spans="1:12">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" ht="60" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" ht="135" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" ht="195" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" ht="195" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" ht="255" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" ht="60" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" ht="90" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.8571428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.8571428571429" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5714285714286" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="30" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="2" ht="150" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I2" s="5"/>
+        <v>187</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L2" s="5"/>
     </row>
     <row r="3" ht="105" spans="1:12">
@@ -4888,29 +5082,33 @@
         <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="5"/>
+        <v>187</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L3" s="5"/>
     </row>
     <row r="4" ht="180" spans="1:12">
@@ -4918,29 +5116,33 @@
         <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I4" s="5"/>
+        <v>187</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L4" s="5"/>
     </row>
     <row r="5" ht="195" spans="1:12">
@@ -4948,27 +5150,31 @@
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="5"/>
+        <v>187</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L5" s="5"/>
     </row>
     <row r="6" ht="105" spans="1:12">
@@ -4976,27 +5182,31 @@
         <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I6" s="5"/>
+        <v>187</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L6" s="5"/>
     </row>
     <row r="7" ht="45" spans="1:12">
@@ -5004,27 +5214,31 @@
         <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I7" s="5"/>
+        <v>198</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12">
@@ -5312,7 +5526,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>45</v>
@@ -5334,10 +5548,10 @@
         <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -5356,10 +5570,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
@@ -5378,10 +5592,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
@@ -5400,10 +5614,10 @@
         <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
@@ -5422,10 +5636,10 @@
         <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
@@ -5444,10 +5658,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
@@ -5466,10 +5680,10 @@
         <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
@@ -5488,10 +5702,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
